--- a/NEW HR/PATERNO, MA. LOURDES.xlsx
+++ b/NEW HR/PATERNO, MA. LOURDES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="141">
   <si>
     <t>PERIOD</t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>3/6,8/2023</t>
+  </si>
+  <si>
+    <t>3/17,20/2023</t>
   </si>
 </sst>
 </file>
@@ -848,14 +854,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -865,9 +874,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1757,10 +1763,10 @@
   </sheetPr>
   <dimension ref="A2:K107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
-      <selection activeCell="D137" sqref="D137"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+      <selection activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,14 +1796,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1808,16 +1814,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1830,14 +1836,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1863,18 +1869,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1920,8 +1926,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.75</v>
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>34.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1930,8 +1936,8 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>105.75</v>
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>14.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3783,26 +3789,40 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="A95" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H95" s="39">
+        <v>2</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
+      <c r="B96" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
+      <c r="D96" s="39">
+        <v>2</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
@@ -3812,7 +3832,9 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
@@ -3992,17 +4014,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4037,10 +4059,10 @@
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="D137" sqref="D137"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,14 +4092,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4088,16 +4110,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4110,14 +4132,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4143,18 +4165,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/PATERNO, MA. LOURDES.xlsx
+++ b/NEW HR/PATERNO, MA. LOURDES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145934C-B726-40DD-81C1-635BC5E11FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,25 +27,17 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="143">
   <si>
     <t>PERIOD</t>
   </si>
@@ -467,12 +460,18 @@
   </si>
   <si>
     <t>3/17,20/2023</t>
+  </si>
+  <si>
+    <t>CASUAL EMPLOYEE</t>
+  </si>
+  <si>
+    <t>3/29,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -854,17 +853,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -874,6 +870,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,25 +1401,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K107" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1432,25 +1431,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1757,34 +1756,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K107"/>
+  <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <pane ySplit="3696" topLeftCell="A93" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1796,36 +1795,38 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>141</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>38930</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1836,16 +1837,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1853,7 +1854,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1866,24 +1867,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1937,12 +1938,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>14.75</v>
+        <v>12.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1964,7 +1965,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1984,7 +1985,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2004,7 +2005,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -2024,7 +2025,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -2064,7 +2065,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -2084,7 +2085,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -2104,7 +2105,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -2124,7 +2125,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -2144,7 +2145,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -2190,7 +2191,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>74</v>
@@ -2238,7 +2239,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>78</v>
@@ -2262,7 +2263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>79</v>
@@ -2284,7 +2285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>77</v>
       </c>
@@ -2302,7 +2303,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43466</v>
       </c>
@@ -2322,7 +2323,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43497</v>
       </c>
@@ -2346,7 +2347,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43525</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43556</v>
       </c>
@@ -2392,7 +2393,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -2412,7 +2413,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -2432,7 +2433,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -2452,7 +2453,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -2472,7 +2473,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -2492,7 +2493,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -2512,7 +2513,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -2532,7 +2533,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -2556,7 +2557,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>107</v>
       </c>
@@ -2574,7 +2575,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -2594,7 +2595,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -2614,7 +2615,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="49"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -2634,7 +2635,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -2654,7 +2655,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -2674,7 +2675,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -2694,7 +2695,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -2714,7 +2715,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -2734,7 +2735,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="49"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>91</v>
@@ -2782,7 +2783,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -2804,7 +2805,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>91</v>
@@ -2826,7 +2827,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44136</v>
       </c>
@@ -2872,7 +2873,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44166</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>71</v>
@@ -2922,7 +2923,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>118</v>
       </c>
@@ -2940,7 +2941,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>91</v>
@@ -2988,7 +2989,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3036,7 +3037,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44256</v>
       </c>
@@ -3056,7 +3057,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44287</v>
       </c>
@@ -3076,7 +3077,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44317</v>
       </c>
@@ -3096,7 +3097,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44348</v>
       </c>
@@ -3116,7 +3117,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44378</v>
       </c>
@@ -3136,7 +3137,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44409</v>
       </c>
@@ -3160,7 +3161,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44440</v>
       </c>
@@ -3180,7 +3181,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44470</v>
       </c>
@@ -3204,7 +3205,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>91</v>
@@ -3224,7 +3225,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>71</v>
@@ -3246,7 +3247,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44501</v>
       </c>
@@ -3266,7 +3267,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -3286,7 +3287,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>125</v>
       </c>
@@ -3304,7 +3305,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -3324,7 +3325,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>45</v>
@@ -3372,7 +3373,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -3394,7 +3395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44621</v>
       </c>
@@ -3414,7 +3415,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44652</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44682</v>
       </c>
@@ -3460,7 +3461,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="49"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44713</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44743</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -3534,7 +3535,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44774</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>91</v>
@@ -3582,7 +3583,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44805</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44835</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -3656,7 +3657,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44866</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44896</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>135</v>
@@ -3730,7 +3731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>138</v>
       </c>
@@ -3748,7 +3749,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44927</v>
       </c>
@@ -3768,7 +3769,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44958</v>
       </c>
@@ -3788,7 +3789,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44986</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>87</v>
@@ -3836,9 +3837,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
@@ -3847,13 +3850,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="39"/>
+      <c r="H97" s="39">
+        <v>2</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="K97" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45017</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3868,8 +3877,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45047</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3884,8 +3895,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45078</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3900,8 +3913,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45108</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3916,8 +3931,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45139</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3932,8 +3949,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45170</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3948,8 +3967,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45200</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3964,8 +3985,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45231</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3980,8 +4003,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45261</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3996,41 +4021,59 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="43"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="43"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="39"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="15"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="41"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="43"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4053,34 +4096,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="D137" sqref="D137"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4092,16 +4135,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4110,18 +4153,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>38930</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4132,16 +4175,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4149,7 +4192,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4162,24 +4205,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4214,7 +4257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4238,7 +4281,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -4260,7 +4303,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -4284,7 +4327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -4306,7 +4349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -4326,7 +4369,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -4350,7 +4393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="15" t="s">
         <v>50</v>
@@ -4370,7 +4413,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43160</v>
       </c>
@@ -4394,7 +4437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -4414,7 +4457,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43191</v>
       </c>
@@ -4436,7 +4479,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -4458,7 +4501,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -4482,7 +4525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -4504,7 +4547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>58</v>
@@ -4526,7 +4569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -4546,7 +4589,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43313</v>
       </c>
@@ -4568,7 +4611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>63</v>
@@ -4588,7 +4631,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -4612,7 +4655,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>55</v>
@@ -4634,7 +4677,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>67</v>
@@ -4654,7 +4697,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -4678,7 +4721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>70</v>
@@ -4698,7 +4741,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -4722,7 +4765,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>74</v>
@@ -4742,7 +4785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>45</v>
@@ -4764,7 +4807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>78</v>
@@ -4786,7 +4829,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>79</v>
@@ -4808,7 +4851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>77</v>
       </c>
@@ -4826,7 +4869,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43466</v>
       </c>
@@ -4850,7 +4893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>45</v>
@@ -4872,7 +4915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>55</v>
@@ -4894,7 +4937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43497</v>
       </c>
@@ -4916,7 +4959,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>87</v>
@@ -4934,7 +4977,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43525</v>
       </c>
@@ -4956,7 +4999,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>45</v>
@@ -4978,7 +5021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -5000,7 +5043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>91</v>
@@ -5022,7 +5065,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>91</v>
@@ -5044,7 +5087,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>45</v>
@@ -5066,7 +5109,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>91</v>
@@ -5088,7 +5131,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43556</v>
       </c>
@@ -5112,7 +5155,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>55</v>
@@ -5134,7 +5177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>91</v>
@@ -5156,7 +5199,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>91</v>
@@ -5178,7 +5221,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43586</v>
       </c>
@@ -5200,7 +5243,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>91</v>
@@ -5222,7 +5265,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>91</v>
@@ -5244,7 +5287,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>91</v>
@@ -5266,7 +5309,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43617</v>
       </c>
@@ -5290,7 +5333,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>91</v>
@@ -5312,7 +5355,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>55</v>
@@ -5334,7 +5377,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43647</v>
       </c>
@@ -5358,7 +5401,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>55</v>
@@ -5380,7 +5423,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>43678</v>
       </c>
@@ -5404,7 +5447,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>43709</v>
       </c>
@@ -5428,7 +5471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>101</v>
@@ -5450,7 +5493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>43739</v>
       </c>
@@ -5474,7 +5517,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>91</v>
@@ -5496,7 +5539,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>55</v>
@@ -5518,7 +5561,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>43770</v>
       </c>
@@ -5542,7 +5585,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>43800</v>
       </c>
@@ -5566,7 +5609,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>106</v>
@@ -5584,7 +5627,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>107</v>
       </c>
@@ -5602,7 +5645,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>43831</v>
       </c>
@@ -5624,7 +5667,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>43862</v>
       </c>
@@ -5646,7 +5689,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>108</v>
@@ -5666,7 +5709,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -5688,7 +5731,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>45</v>
@@ -5710,7 +5753,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44013</v>
       </c>
@@ -5734,7 +5777,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>91</v>
@@ -5756,7 +5799,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>45</v>
@@ -5778,7 +5821,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44044</v>
       </c>
@@ -5802,7 +5845,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>118</v>
       </c>
@@ -5820,7 +5863,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44228</v>
       </c>
@@ -5842,7 +5885,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>125</v>
       </c>
@@ -5860,7 +5903,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44593</v>
       </c>
@@ -5882,7 +5925,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44682</v>
       </c>
@@ -5904,7 +5947,7 @@
         <v>44707</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>138</v>
       </c>
@@ -5919,7 +5962,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44958</v>
       </c>
@@ -5938,7 +5981,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5951,7 +5994,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5964,7 +6007,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5977,7 +6020,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5990,7 +6033,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6003,7 +6046,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6016,7 +6059,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6029,7 +6072,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6042,7 +6085,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6055,7 +6098,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6068,7 +6111,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="49"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6081,7 +6124,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6094,7 +6137,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6110,7 +6153,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6126,7 +6169,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6142,7 +6185,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6158,7 +6201,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6174,7 +6217,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6190,7 +6233,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6206,7 +6249,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6222,7 +6265,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6238,7 +6281,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6254,7 +6297,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6270,7 +6313,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6286,7 +6329,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6302,7 +6345,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6318,7 +6361,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6334,7 +6377,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="15"/>
       <c r="C115" s="42"/>
@@ -6365,10 +6408,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6391,28 +6434,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6425,7 +6468,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6454,7 +6497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>40.25</v>
       </c>
@@ -6478,17 +6521,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6509,7 +6552,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6536,7 +6579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6562,7 +6605,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6588,7 +6631,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6614,7 +6657,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6640,7 +6683,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6666,7 +6709,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6692,7 +6735,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6718,7 +6761,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6738,7 +6781,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6758,7 +6801,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6778,7 +6821,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6799,7 +6842,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6820,7 +6863,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6841,7 +6884,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6862,7 +6905,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6883,7 +6926,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6904,7 +6947,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6925,7 +6968,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6946,7 +6989,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6967,7 +7010,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6988,7 +7031,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7009,7 +7052,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7030,7 +7073,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7051,7 +7094,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7072,7 +7115,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7093,7 +7136,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7114,7 +7157,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7135,7 +7178,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7156,7 +7199,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7177,7 +7220,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7198,7 +7241,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7207,7 +7250,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7216,7 +7259,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7225,7 +7268,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7234,7 +7277,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7243,7 +7286,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7252,7 +7295,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7261,7 +7304,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7270,7 +7313,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7279,7 +7322,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7288,7 +7331,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7297,7 +7340,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7306,7 +7349,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7315,7 +7358,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7324,7 +7367,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7333,7 +7376,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7342,7 +7385,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7351,7 +7394,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7360,7 +7403,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7369,7 +7412,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7378,7 +7421,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7387,7 +7430,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7396,7 +7439,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7405,7 +7448,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7414,7 +7457,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7423,7 +7466,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7432,7 +7475,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7441,7 +7484,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7450,7 +7493,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7459,7 +7502,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PATERNO, MA. LOURDES.xlsx
+++ b/NEW HR/PATERNO, MA. LOURDES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4145934C-B726-40DD-81C1-635BC5E11FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
   <si>
     <t>PERIOD</t>
   </si>
@@ -466,12 +465,15 @@
   </si>
   <si>
     <t>3/29,30/2023</t>
+  </si>
+  <si>
+    <t>CCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -853,14 +855,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -870,9 +875,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1401,25 +1403,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1431,25 +1433,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1756,34 +1758,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A93" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
+      <pane ySplit="3690" topLeftCell="A93" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1795,16 +1797,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1815,18 +1817,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1837,16 +1839,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1854,7 +1858,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1867,24 +1871,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1928,7 +1932,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>34.75</v>
+        <v>36</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1938,12 +1942,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1965,7 +1969,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1985,7 +1989,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2005,7 +2009,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -2025,7 +2029,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -2045,7 +2049,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -2065,7 +2069,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -2085,7 +2089,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -2105,7 +2109,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -2125,7 +2129,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -2145,7 +2149,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -2191,7 +2195,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>74</v>
@@ -2239,7 +2243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>78</v>
@@ -2263,7 +2267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>79</v>
@@ -2285,7 +2289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>77</v>
       </c>
@@ -2303,7 +2307,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43466</v>
       </c>
@@ -2323,7 +2327,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43497</v>
       </c>
@@ -2347,7 +2351,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43525</v>
       </c>
@@ -2373,7 +2377,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43556</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -2413,7 +2417,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -2433,7 +2437,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -2453,7 +2457,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -2493,7 +2497,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -2513,7 +2517,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -2533,7 +2537,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -2557,7 +2561,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>107</v>
       </c>
@@ -2575,7 +2579,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -2595,7 +2599,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -2615,7 +2619,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="49"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -2635,7 +2639,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -2655,7 +2659,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -2675,7 +2679,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -2695,7 +2699,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -2715,7 +2719,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -2735,7 +2739,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="49"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>91</v>
@@ -2783,7 +2787,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -2805,7 +2809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>91</v>
@@ -2827,7 +2831,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44136</v>
       </c>
@@ -2873,7 +2877,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44166</v>
       </c>
@@ -2899,7 +2903,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>71</v>
@@ -2923,7 +2927,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>118</v>
       </c>
@@ -2941,7 +2945,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -2967,7 +2971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>91</v>
@@ -2989,7 +2993,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3037,7 +3041,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44256</v>
       </c>
@@ -3057,7 +3061,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44287</v>
       </c>
@@ -3077,7 +3081,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44317</v>
       </c>
@@ -3097,7 +3101,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44348</v>
       </c>
@@ -3117,7 +3121,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44378</v>
       </c>
@@ -3137,7 +3141,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44409</v>
       </c>
@@ -3161,7 +3165,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44440</v>
       </c>
@@ -3181,7 +3185,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44470</v>
       </c>
@@ -3205,7 +3209,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>91</v>
@@ -3225,7 +3229,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>71</v>
@@ -3247,7 +3251,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44501</v>
       </c>
@@ -3267,7 +3271,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -3287,7 +3291,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>125</v>
       </c>
@@ -3305,7 +3309,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -3325,7 +3329,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>45</v>
@@ -3373,7 +3377,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -3395,7 +3399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44621</v>
       </c>
@@ -3415,7 +3419,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44652</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44682</v>
       </c>
@@ -3461,7 +3465,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="49"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44713</v>
       </c>
@@ -3487,7 +3491,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44743</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -3535,7 +3539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44774</v>
       </c>
@@ -3561,7 +3565,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>91</v>
@@ -3583,7 +3587,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44805</v>
       </c>
@@ -3609,7 +3613,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44835</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -3657,7 +3661,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44866</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44896</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>135</v>
@@ -3731,7 +3735,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>138</v>
       </c>
@@ -3749,7 +3753,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44927</v>
       </c>
@@ -3769,7 +3773,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44958</v>
       </c>
@@ -3789,7 +3793,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44986</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>87</v>
@@ -3837,7 +3841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>45</v>
@@ -3859,29 +3863,37 @@
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45017</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="49">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45047</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
@@ -3890,12 +3902,16 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="39">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="49">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45078</v>
       </c>
@@ -3913,7 +3929,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45108</v>
       </c>
@@ -3931,7 +3947,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45139</v>
       </c>
@@ -3949,7 +3965,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45170</v>
       </c>
@@ -3967,7 +3983,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45200</v>
       </c>
@@ -3985,7 +4001,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45231</v>
       </c>
@@ -4003,7 +4019,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45261</v>
       </c>
@@ -4021,7 +4037,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45292</v>
       </c>
@@ -4039,7 +4055,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="15"/>
       <c r="C108" s="42"/>
@@ -4057,23 +4073,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4096,34 +4112,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="D137" sqref="D137"/>
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4135,16 +4151,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4153,18 +4169,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4175,16 +4191,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4192,7 +4208,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4205,24 +4221,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4281,7 +4297,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -4303,7 +4319,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -4327,7 +4343,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -4349,7 +4365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -4369,7 +4385,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -4393,7 +4409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="15" t="s">
         <v>50</v>
@@ -4413,7 +4429,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43160</v>
       </c>
@@ -4437,7 +4453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -4457,7 +4473,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43191</v>
       </c>
@@ -4479,7 +4495,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -4501,7 +4517,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -4525,7 +4541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -4547,7 +4563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>58</v>
@@ -4569,7 +4585,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -4589,7 +4605,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43313</v>
       </c>
@@ -4611,7 +4627,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>63</v>
@@ -4631,7 +4647,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -4655,7 +4671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>55</v>
@@ -4677,7 +4693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>67</v>
@@ -4697,7 +4713,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -4721,7 +4737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>70</v>
@@ -4741,7 +4757,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -4765,7 +4781,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>74</v>
@@ -4785,7 +4801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>45</v>
@@ -4807,7 +4823,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>78</v>
@@ -4829,7 +4845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>79</v>
@@ -4851,7 +4867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>77</v>
       </c>
@@ -4869,7 +4885,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43466</v>
       </c>
@@ -4893,7 +4909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>45</v>
@@ -4915,7 +4931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>55</v>
@@ -4937,7 +4953,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43497</v>
       </c>
@@ -4959,7 +4975,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>87</v>
@@ -4977,7 +4993,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43525</v>
       </c>
@@ -4999,7 +5015,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>45</v>
@@ -5021,7 +5037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -5043,7 +5059,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>91</v>
@@ -5065,7 +5081,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>91</v>
@@ -5087,7 +5103,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>45</v>
@@ -5109,7 +5125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>91</v>
@@ -5131,7 +5147,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43556</v>
       </c>
@@ -5155,7 +5171,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>55</v>
@@ -5177,7 +5193,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>91</v>
@@ -5199,7 +5215,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>91</v>
@@ -5221,7 +5237,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43586</v>
       </c>
@@ -5243,7 +5259,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>91</v>
@@ -5265,7 +5281,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>91</v>
@@ -5287,7 +5303,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>91</v>
@@ -5309,7 +5325,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43617</v>
       </c>
@@ -5333,7 +5349,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>91</v>
@@ -5355,7 +5371,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>55</v>
@@ -5377,7 +5393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43647</v>
       </c>
@@ -5401,7 +5417,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>55</v>
@@ -5423,7 +5439,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>43678</v>
       </c>
@@ -5447,7 +5463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>43709</v>
       </c>
@@ -5471,7 +5487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>101</v>
@@ -5493,7 +5509,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>43739</v>
       </c>
@@ -5517,7 +5533,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>91</v>
@@ -5539,7 +5555,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>55</v>
@@ -5561,7 +5577,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>43770</v>
       </c>
@@ -5585,7 +5601,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>43800</v>
       </c>
@@ -5609,7 +5625,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>106</v>
@@ -5627,7 +5643,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>107</v>
       </c>
@@ -5645,7 +5661,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>43831</v>
       </c>
@@ -5667,7 +5683,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>43862</v>
       </c>
@@ -5689,7 +5705,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>108</v>
@@ -5709,7 +5725,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -5731,7 +5747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>45</v>
@@ -5753,7 +5769,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44013</v>
       </c>
@@ -5777,7 +5793,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>91</v>
@@ -5799,7 +5815,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>45</v>
@@ -5821,7 +5837,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44044</v>
       </c>
@@ -5845,7 +5861,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>118</v>
       </c>
@@ -5863,7 +5879,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44228</v>
       </c>
@@ -5885,7 +5901,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>125</v>
       </c>
@@ -5903,7 +5919,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44593</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44682</v>
       </c>
@@ -5947,7 +5963,7 @@
         <v>44707</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>138</v>
       </c>
@@ -5962,7 +5978,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44958</v>
       </c>
@@ -5981,7 +5997,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5994,7 +6010,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="49"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6007,7 +6023,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6020,7 +6036,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6033,7 +6049,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6046,7 +6062,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6059,7 +6075,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6072,7 +6088,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6085,7 +6101,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6098,7 +6114,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6111,7 +6127,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="49"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6124,7 +6140,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6137,7 +6153,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6153,7 +6169,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6169,7 +6185,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6185,7 +6201,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6201,7 +6217,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6217,7 +6233,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6233,7 +6249,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6249,7 +6265,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6265,7 +6281,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6281,7 +6297,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6297,7 +6313,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6313,7 +6329,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6329,7 +6345,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6345,7 +6361,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6361,7 +6377,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6377,7 +6393,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="15"/>
       <c r="C115" s="42"/>
@@ -6408,10 +6424,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6434,28 +6450,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6468,7 +6484,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6497,7 +6513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>40.25</v>
       </c>
@@ -6521,17 +6537,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6552,7 +6568,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6579,7 +6595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6605,7 +6621,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6631,7 +6647,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6657,7 +6673,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6683,7 +6699,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6709,7 +6725,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6735,7 +6751,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6761,7 +6777,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6781,7 +6797,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6801,7 +6817,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6821,7 +6837,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6842,7 +6858,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6863,7 +6879,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6884,7 +6900,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6905,7 +6921,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6926,7 +6942,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6947,7 +6963,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6968,7 +6984,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6989,7 +7005,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7010,7 +7026,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7031,7 +7047,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7052,7 +7068,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7073,7 +7089,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7094,7 +7110,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7115,7 +7131,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7136,7 +7152,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7157,7 +7173,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7178,7 +7194,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7199,7 +7215,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7220,7 +7236,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7241,7 +7257,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7250,7 +7266,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7259,7 +7275,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7268,7 +7284,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7277,7 +7293,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7286,7 +7302,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7295,7 +7311,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7304,7 +7320,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7313,7 +7329,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7322,7 +7338,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7331,7 +7347,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7340,7 +7356,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7349,7 +7365,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7358,7 +7374,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7367,7 +7383,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7376,7 +7392,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7385,7 +7401,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7394,7 +7410,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7403,7 +7419,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7412,7 +7428,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7421,7 +7437,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7430,7 +7446,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7439,7 +7455,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7448,7 +7464,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7457,7 +7473,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7466,7 +7482,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7475,7 +7491,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7484,7 +7500,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7493,7 +7509,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7502,7 +7518,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PATERNO, MA. LOURDES.xlsx
+++ b/NEW HR/PATERNO, MA. LOURDES.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="144">
   <si>
     <t>PERIOD</t>
   </si>
@@ -855,17 +855,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -875,6 +872,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1767,7 +1767,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A93" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,14 +1797,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1817,16 +1817,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>38930</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1839,16 +1839,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1874,18 +1874,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1942,7 +1942,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3894,13 +3894,15 @@
       <c r="B99" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39">
         <v>1</v>
@@ -3916,13 +3918,15 @@
         <v>45078</v>
       </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
@@ -3933,9 +3937,13 @@
       <c r="A101" s="40">
         <v>45108</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="39">
+        <v>1</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -3945,7 +3953,9 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="49">
+        <v>45121</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
@@ -4073,17 +4083,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4151,14 +4161,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4169,16 +4179,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>38930</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4191,14 +4201,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4224,18 +4234,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/PATERNO, MA. LOURDES.xlsx
+++ b/NEW HR/PATERNO, MA. LOURDES.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="144">
   <si>
     <t>PERIOD</t>
   </si>
@@ -855,14 +855,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -872,9 +875,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,7 +1403,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K109" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1762,12 +1762,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K108"/>
+  <dimension ref="A2:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A93" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A90" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,14 +1797,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1817,16 +1817,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1839,16 +1839,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1874,18 +1874,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3958,10 +3958,10 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B102" s="20"/>
+      <c r="A102" s="40"/>
+      <c r="B102" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
@@ -3973,11 +3973,13 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="49">
+        <v>45120</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3995,7 +3997,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4013,7 +4015,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4031,7 +4033,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4049,7 +4051,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4066,34 +4068,52 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="43"/>
+      <c r="A108" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="39"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="43"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="39"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="15"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="43"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4161,14 +4181,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4179,16 +4199,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4201,14 +4221,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4234,18 +4254,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/PATERNO, MA. LOURDES.xlsx
+++ b/NEW HR/PATERNO, MA. LOURDES.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="145">
   <si>
     <t>PERIOD</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>CCT</t>
+  </si>
+  <si>
+    <t>8/23-25/2023</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1406,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K109" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K110" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1762,12 +1765,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K109"/>
+  <dimension ref="A2:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A90" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1935,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>37.5</v>
+        <v>38.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1942,7 +1945,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>15.5</v>
+        <v>12.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3940,15 +3943,17 @@
       <c r="B101" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="13"/>
+      <c r="C101" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D101" s="39">
         <v>1</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G101" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
@@ -3981,7 +3986,9 @@
       <c r="A103" s="40">
         <v>45139</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
@@ -3990,16 +3997,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="39"/>
+      <c r="H103" s="39">
+        <v>1</v>
+      </c>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="49">
+        <v>45141</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B104" s="20"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
@@ -4008,14 +4019,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="39">
+        <v>3</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="49" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4033,7 +4048,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4051,7 +4066,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4069,7 +4084,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4086,20 +4101,38 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="43"/>
+      <c r="A109" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="39"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="43"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="39"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="15"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="41"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="43"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4148,7 +4181,7 @@
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="D137" sqref="D137"/>
       <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
